--- a/public/import/Detracciones.xlsx
+++ b/public/import/Detracciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\tienda\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49539A65-8AB5-4FBF-87C9-D63ADD34F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD7924B-DD7A-467F-B295-F723A5529BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EACBC37B-E063-4E02-AEDC-A9010786E0CC}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>codigo</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
@@ -42,12 +39,6 @@
     <t>005</t>
   </si>
   <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
     <t>008</t>
   </si>
   <si>
@@ -57,30 +48,12 @@
     <t>010</t>
   </si>
   <si>
-    <t>011</t>
-  </si>
-  <si>
     <t>012</t>
   </si>
   <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
     <t>017</t>
   </si>
   <si>
-    <t>018</t>
-  </si>
-  <si>
     <t>019</t>
   </si>
   <si>
@@ -93,9 +66,6 @@
     <t>022</t>
   </si>
   <si>
-    <t>023</t>
-  </si>
-  <si>
     <t>024</t>
   </si>
   <si>
@@ -105,21 +75,12 @@
     <t>026</t>
   </si>
   <si>
-    <t>029</t>
-  </si>
-  <si>
     <t>030</t>
   </si>
   <si>
     <t>031</t>
   </si>
   <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
     <t>034</t>
   </si>
   <si>
@@ -135,81 +96,15 @@
     <t>039</t>
   </si>
   <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>tasa</t>
   </si>
   <si>
-    <t>AZÚCAR</t>
-  </si>
-  <si>
-    <t>ALCOHOL ETÍLICO</t>
-  </si>
-  <si>
-    <t>RECURSOS HIDROBIOLÓGICOS</t>
-  </si>
-  <si>
-    <t>MAÍZ AMARILLO DURO</t>
-  </si>
-  <si>
-    <t>ALGODÓN</t>
-  </si>
-  <si>
-    <t>CAÑA DE AZÚCAR</t>
-  </si>
-  <si>
     <t>MADERA</t>
   </si>
   <si>
-    <t>ARENA Y PIEDRA.</t>
-  </si>
-  <si>
-    <t>RESIDUOS, SUBPRODUCTOS, DESECHOS, RECORTES Y DESPERDICIOS</t>
-  </si>
-  <si>
-    <t>BIENES DEL INCISO A) DEL APÉNDICE I DE LA LEY DEL IGV</t>
-  </si>
-  <si>
-    <t>INTERMEDIACIÓN LABORAL Y TERCERIZACIÓN</t>
-  </si>
-  <si>
-    <t>ANIMALES VIVOS</t>
-  </si>
-  <si>
-    <t>CARNES Y DESPOJOS COMESTIBLES</t>
-  </si>
-  <si>
-    <t>ABONOS, CUEROS Y PIELES DE ORIGEN ANIMAL</t>
-  </si>
-  <si>
-    <t>ACEITE DE PESCADO</t>
-  </si>
-  <si>
-    <t>HARINA, POLVO Y “PELLETS” DE PESCADO, CRUSTÁCEOS, MOLUSCOS Y DEMÁS INVERTEBRADOS ACUÁTICOS</t>
-  </si>
-  <si>
-    <t>EMBARCACIONES PESQUERAS</t>
-  </si>
-  <si>
     <t>ARRENDAMIENTO DE BIENES MUEBLES</t>
   </si>
   <si>
@@ -222,56 +117,68 @@
     <t>OTROS SERVICIOS EMPRESARIALES</t>
   </si>
   <si>
-    <t>LECHE</t>
-  </si>
-  <si>
     <t>COMISIÓN MERCANTIL</t>
   </si>
   <si>
-    <t>FABRICACIÓN DE BIENES POR ENCARGO</t>
-  </si>
-  <si>
     <t>SERVICIO DE TRANSPORTE DE PERSONAS</t>
   </si>
   <si>
-    <t>ALGODÓN EN RAMA SIN DESMONTAR</t>
-  </si>
-  <si>
-    <t>CONTRATOS DE CONSTRUCCIÓN</t>
-  </si>
-  <si>
     <t>ORO GRAVADO CON EL IGV</t>
   </si>
   <si>
-    <t>PÁPRIKA Y OTROS FRUTOS DE LOS GÉNEROS CAPSICUM O PIMIENTA</t>
-  </si>
-  <si>
-    <t>ESPÁRRAGOS</t>
-  </si>
-  <si>
-    <t>MINERALES METÁLICOS NO AURÍFEROS</t>
-  </si>
-  <si>
     <t>BIENES EXONERADOS DEL IGV</t>
   </si>
   <si>
-    <t>ORO Y DEMÁS MINERALES METÁLICOS EXONERADOS DEL IGV</t>
-  </si>
-  <si>
     <t>DEMÁS SERVICIOS GRAVADOS CON EL IGV</t>
   </si>
   <si>
     <t>MINERALES NO METÁLICOS</t>
   </si>
   <si>
-    <t>BIEN INMUEBLE GRAVADO CON IGV</t>
+    <t>ALCOHOL ETILICO</t>
+  </si>
+  <si>
+    <t>RECURSOS HIDROBIOLOGICOS</t>
+  </si>
+  <si>
+    <t>MAIZ AMARILLO DURO</t>
+  </si>
+  <si>
+    <t>ARENA Y PIEDRA</t>
+  </si>
+  <si>
+    <t>RESIDUOS-DESPERDICIOS Y DERIVADAS</t>
+  </si>
+  <si>
+    <t>SERVICIOS DE INTERMEDIACIÓN LABORAL GRAV CON EL IGV Y TERCERIZ.</t>
+  </si>
+  <si>
+    <t>HARINA - POLVO Y PELLETS DE PESCADO - CRUST. MOLUS Y DEMAS INV. AC.</t>
+  </si>
+  <si>
+    <t>FABRICACION DE BIENES POR ENCARGO</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>SERVICIO DE TRANSPORTE DE BIENES</t>
+  </si>
+  <si>
+    <t>CONTRATOS DE CONSTRUCCION</t>
+  </si>
+  <si>
+    <t>MINERALES METALICOS NO AURIFEROS</t>
+  </si>
+  <si>
+    <t>ORO Y MINERALES METÁLICOS EXONERADOS IGV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +193,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,16 +229,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6BACE46B-D563-4600-BA80-BB807556CBF4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299FE741-5019-480D-8FA1-5DC2166EE295}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,10 +572,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -677,10 +594,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -688,10 +605,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,10 +627,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,10 +638,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,329 +649,230 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>39</v>
+      <c r="C28">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
